--- a/DesignDocs/VariableData/abnormal.xlsx
+++ b/DesignDocs/VariableData/abnormal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDA3E700-BFDA-4755-899B-5E2517DBD404}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070809A-88A8-4938-B382-9650E68DDDC3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8100" xr2:uid="{2FB7CFF4-406C-4F3C-899D-0A0670912386}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DesignDocs/VariableData/abnormal.xlsx
+++ b/DesignDocs/VariableData/abnormal.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070809A-88A8-4938-B382-9650E68DDDC3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8100" xr2:uid="{2FB7CFF4-406C-4F3C-899D-0A0670912386}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,13 +43,57 @@
   </si>
   <si>
     <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(Slow, -10, 1, 5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19103_slow_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19200_snare_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근육사슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(snare, 2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19202_uparmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐슬캐슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(upamor, 10, 5, 60)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,14 +450,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DE1F00-1EF9-4887-8CCC-915200A2310D}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -431,6 +481,57 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>19010</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19031</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>19152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/abnormal.xlsx
+++ b/DesignDocs/VariableData/abnormal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19103_slow_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +83,14 @@
   </si>
   <si>
     <t>{(upamor, 10, 5, 60)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +458,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K13" sqref="J13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -488,7 +492,7 @@
         <v>19010</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -497,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -505,16 +509,16 @@
         <v>19031</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -522,16 +526,16 @@
         <v>19152</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/abnormal.xlsx
+++ b/DesignDocs/VariableData/abnormal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A92D7F3-A8FC-40ED-AA71-F826091F34D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name_kor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abnormal_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,13 +84,21 @@
   </si>
   <si>
     <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameKor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abnormalValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,11 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="J13:K13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -478,13 +479,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -492,16 +493,16 @@
         <v>19010</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -509,16 +510,16 @@
         <v>19031</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -526,16 +527,16 @@
         <v>19152</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/abnormal.xlsx
+++ b/DesignDocs/VariableData/abnormal.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A92D7F3-A8FC-40ED-AA71-F826091F34D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,18 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(Slow, -10, 1, 5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19103_slow_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19200_snare_04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,26 +47,6 @@
   </si>
   <si>
     <t>{(snare, 2)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19202_uparmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐슬캐슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(upamor, 10, 5, 60)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +422,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -479,10 +446,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -490,53 +457,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>19010</v>
+        <v>19040</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>19031</v>
-      </c>
-      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>19152</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/VariableData/abnormal.xlsx
+++ b/DesignDocs/VariableData/abnormal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E50DDD1-21C1-44DB-8171-ACE3FE26756F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,12 +61,129 @@
   <si>
     <t>abnormalValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이01 넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(knockback, 2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핏불 스네어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핏불 넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(knockback, 4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(snare, 2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도롱뇽 화염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(flame, 15, 1, 5, 5, sec)}</t>
+  </si>
+  <si>
+    <t>카르바노그 넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(knockback, 8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(cure, 20, 3, 5, sec)}</t>
+  </si>
+  <si>
+    <t>{(upatk, 3, 3, 5, all)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(updef, 3, 3, 5, sec)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 공업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 방업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매드버디 독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매드버디 슬로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(poison, 15, 5, 600, all)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(slow, -20, 2, 5, sec)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_cat_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_pitbull_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_pitbull_02</t>
+  </si>
+  <si>
+    <t>13_Salamander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Caerbannog</t>
+  </si>
+  <si>
+    <t>13_Tim_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_Tim_02</t>
+  </si>
+  <si>
+    <t>13_Tim_03</t>
+  </si>
+  <si>
+    <t>13_MadBuddy_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_MadBuddy_02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,20 +201,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -105,8 +244,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,11 +567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -472,8 +617,179 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>13000</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>13001</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>13002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>13003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>13004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>13005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>13006</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>13007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>13008</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>13009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignDocs/VariableData/abnormal.xlsx
+++ b/DesignDocs/VariableData/abnormal.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E50DDD1-21C1-44DB-8171-ACE3FE26756F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16212" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,23 +566,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>19040</v>
       </c>
@@ -617,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>13000</v>
       </c>
@@ -634,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>13001</v>
       </c>
@@ -651,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>13002</v>
       </c>
@@ -668,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>13003</v>
       </c>
@@ -685,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>13004</v>
       </c>
@@ -702,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>13005</v>
       </c>
@@ -719,7 +718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>13006</v>
       </c>
@@ -736,7 +735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>13007</v>
       </c>
@@ -753,7 +752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>13008</v>
       </c>
@@ -770,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>13009</v>
       </c>

--- a/DesignDocs/VariableData/abnormal.xlsx
+++ b/DesignDocs/VariableData/abnormal.xlsx
@@ -570,7 +570,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
